--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-399740.2865689798</v>
+        <v>-368090.6576067671</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16765245.16155729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9107755.270535436</v>
+        <v>9138943.723304866</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>309.4482338529296</v>
+        <v>330.9204944393117</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>97.4991403767655</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>84.85899356878446</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>275.3369893357822</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>57.73747503614033</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.6306905111304</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>290.4176487518021</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>66.12232352323805</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>112.1673564559255</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1342,19 +1342,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>49.89236401141559</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1376,19 +1376,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>28.33236453894338</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556922</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>68.91703953233974</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>94.21878984361652</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313668</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253731</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791317632</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>24.62703520776683</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864833</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>50.0592448656676</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>155.2022955251547</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>129.7139627068457</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776672</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225762</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3281,7 +3281,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112152</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225773</v>
+        <v>18.05677735225763</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925395</v>
+        <v>66.57964473925392</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169443</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V38" t="n">
         <v>342.7550702267643</v>
@@ -3676,10 +3676,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277828</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.537639394324</v>
+        <v>71.53763939432397</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934433</v>
+        <v>4.967932742935395</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3724,7 +3724,7 @@
         <v>253.070430030824</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811742</v>
       </c>
       <c r="Y40" t="n">
         <v>208.9097636402854</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245964</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3913,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934458</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4150,10 +4150,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934495</v>
+        <v>4.967932742934469</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>1290.454664100192</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5381531497383</v>
+        <v>1256.35259532402</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6687723645869</v>
+        <v>820.442810498464</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9344315632861</v>
+        <v>386.6680656567592</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>52.40493996048478</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>52.40493996048478</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>52.40493996048478</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048478</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>607.5718832905891</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312587</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271182</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2400.179770897278</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2140.957468214295</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2140.957468214295</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1736.102013625328</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1720.999954245043</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>1312.713830544696</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1463.178981536723</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1356.722520373365</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1261.632231519919</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1167.511816846872</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>1084.127978463034</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>998.7428887292178</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>957.0072365454303</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>983.0709097058877</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1307.6292346721</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1956.1403666831</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1962.335281297823</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1962.335281297823</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1962.335281297823</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1962.335281297823</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1962.335281297823</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2503.074219929899</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2556.791560472622</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2426.612916803224</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2250.276369803192</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2051.158851865192</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1865.836097598386</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1710.968661837265</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1584.482882616486</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.6598237215927</v>
+        <v>883.4820229634106</v>
       </c>
       <c r="C4" t="n">
-        <v>119.6598237215927</v>
+        <v>710.9203114466355</v>
       </c>
       <c r="D4" t="n">
-        <v>119.6598237215927</v>
+        <v>545.0423186481582</v>
       </c>
       <c r="E4" t="n">
-        <v>119.6598237215927</v>
+        <v>545.0423186481582</v>
       </c>
       <c r="F4" t="n">
-        <v>119.6598237215927</v>
+        <v>446.5583384696072</v>
       </c>
       <c r="G4" t="n">
-        <v>119.6598237215927</v>
+        <v>280.9670634954349</v>
       </c>
       <c r="H4" t="n">
-        <v>119.6598237215927</v>
+        <v>141.0648891858094</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048478</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>138.9846251251746</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>413.7430796963102</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>831.9529614642713</v>
       </c>
       <c r="M4" t="n">
-        <v>1146.964903885608</v>
+        <v>1291.436828645185</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>1733.695631802829</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2153.36488102861</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.871774998952</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2598.829176729611</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2439.587808027607</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2193.708361606063</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>1915.275360859168</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>1628.319852729598</v>
       </c>
       <c r="W4" t="n">
-        <v>592.4712490740719</v>
+        <v>1356.29344831589</v>
       </c>
       <c r="X4" t="n">
-        <v>347.0794944074844</v>
+        <v>1110.901693649302</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.6598237215927</v>
+        <v>883.4820229634106</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180.3445749570172</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C5" t="n">
-        <v>146.2425061808445</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1393.464329137293</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>1030.847379071119</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>1030.032328522557</v>
+        <v>2086.56159868973</v>
       </c>
       <c r="X5" t="n">
-        <v>610.8898651018675</v>
+        <v>1667.419135269041</v>
       </c>
       <c r="Y5" t="n">
-        <v>202.6037414015209</v>
+        <v>1663.173415609098</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>951.1357312073217</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>679.1093267936133</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>433.7175721270257</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.297901441134</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160.5080193424935</v>
+        <v>1415.517618276922</v>
       </c>
       <c r="C8" t="n">
-        <v>126.4059505663209</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>94.53656978116948</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>64.80222897986872</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>40.97520342948051</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>40.97520342948051</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>40.97520342948051</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948051</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>40.97520342948051</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>527.5557441545619</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>527.5557441545619</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>527.5557441545619</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>527.5557441545619</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1034.623886594383</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1541.692029034204</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2048.760171474025</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1686.143221407852</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1281.287766818885</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>862.1453033981958</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>453.8591796978492</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207732</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574156</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039688</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309225</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470842</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326804</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948051</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.0388765899381</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561504</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959716</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213156</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005364</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120.033364041362</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>947.4716525245868</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>781.5936597261095</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>611.8356559768469</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>435.128601938603</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>269.5373269644307</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>129.6351526548052</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948051</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.97520342948051</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97520342948051</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>459.1850851974415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>918.6689523783547</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1360.927755535999</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1780.597004761781</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.760171474025</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2027.342350179397</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1868.100981477394</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1868.100981477394</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1589.667980730499</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1539.271653446241</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1539.271653446241</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1539.271653446241</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1311.851982760349</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1810.787378159073</v>
+        <v>2065.808456798467</v>
       </c>
       <c r="C11" t="n">
-        <v>1372.644905342496</v>
+        <v>1627.665983981891</v>
       </c>
       <c r="D11" t="n">
-        <v>936.7351205169407</v>
+        <v>1191.756199156335</v>
       </c>
       <c r="E11" t="n">
-        <v>502.9603756752359</v>
+        <v>1191.756199156335</v>
       </c>
       <c r="F11" t="n">
-        <v>474.3418256358992</v>
+        <v>763.8887695655428</v>
       </c>
       <c r="G11" t="n">
-        <v>72.94399425916303</v>
+        <v>362.4909381888068</v>
       </c>
       <c r="H11" t="n">
-        <v>72.94399425916303</v>
+        <v>73.360783632023</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916303</v>
+        <v>72.94399425916301</v>
       </c>
       <c r="J11" t="n">
-        <v>72.94399425916303</v>
+        <v>508.1986817120809</v>
       </c>
       <c r="K11" t="n">
-        <v>907.294286217341</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="L11" t="n">
-        <v>1369.709123209018</v>
+        <v>2103.236987413102</v>
       </c>
       <c r="M11" t="n">
-        <v>1369.709123209018</v>
+        <v>2103.236987413102</v>
       </c>
       <c r="N11" t="n">
-        <v>1369.709123209018</v>
+        <v>2103.236987413102</v>
       </c>
       <c r="O11" t="n">
-        <v>2272.391052166161</v>
+        <v>2103.236987413102</v>
       </c>
       <c r="P11" t="n">
-        <v>3100.700926999557</v>
+        <v>2931.546862246498</v>
       </c>
       <c r="Q11" t="n">
-        <v>3647.199712958152</v>
+        <v>3478.045648205093</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.199712958152</v>
+        <v>3647.19971295815</v>
       </c>
       <c r="S11" t="n">
-        <v>3647.199712958152</v>
+        <v>3563.547839141987</v>
       </c>
       <c r="T11" t="n">
-        <v>3427.13248583119</v>
+        <v>3343.480612015026</v>
       </c>
       <c r="U11" t="n">
-        <v>3427.13248583119</v>
+        <v>3343.480612015026</v>
       </c>
       <c r="V11" t="n">
-        <v>3064.515535765016</v>
+        <v>2980.863661948852</v>
       </c>
       <c r="W11" t="n">
-        <v>3064.515535765016</v>
+        <v>2911.250490704065</v>
       </c>
       <c r="X11" t="n">
-        <v>2645.373072344327</v>
+        <v>2492.108027283375</v>
       </c>
       <c r="Y11" t="n">
-        <v>2237.086948643981</v>
+        <v>2492.108027283375</v>
       </c>
     </row>
     <row r="12">
@@ -5100,40 +5100,40 @@
         <v>472.6592780870981</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336514</v>
+        <v>377.5689892336513</v>
       </c>
       <c r="E12" t="n">
-        <v>283.4485745606051</v>
+        <v>283.448574560605</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767667</v>
+        <v>200.0647361767666</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429506</v>
+        <v>114.6796464429505</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916303</v>
+        <v>72.94399425916301</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962063</v>
+        <v>99.0076674196206</v>
       </c>
       <c r="J12" t="n">
-        <v>423.565992385833</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="K12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.272039011557</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="P12" t="n">
         <v>1078.272039011557</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.6792003787784</v>
+        <v>941.6792003787785</v>
       </c>
       <c r="C13" t="n">
-        <v>769.1174888620034</v>
+        <v>769.1174888620035</v>
       </c>
       <c r="D13" t="n">
-        <v>603.2394960635261</v>
+        <v>603.2394960635263</v>
       </c>
       <c r="E13" t="n">
-        <v>433.4814923142633</v>
+        <v>433.4814923142635</v>
       </c>
       <c r="F13" t="n">
-        <v>256.7744382760196</v>
+        <v>256.7744382760197</v>
       </c>
       <c r="G13" t="n">
-        <v>161.6039434844877</v>
+        <v>91.18316330184759</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6039434844877</v>
+        <v>72.94399425916301</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916303</v>
+        <v>72.94399425916301</v>
       </c>
       <c r="J13" t="n">
         <v>159.5236794238529</v>
@@ -5221,19 +5221,19 @@
         <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.603604161962</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.603604161962</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.724157740417</v>
+        <v>2443.724157740418</v>
       </c>
       <c r="U13" t="n">
         <v>2165.291156993523</v>
       </c>
       <c r="V13" t="n">
-        <v>1878.335648863953</v>
+        <v>1878.335648863954</v>
       </c>
       <c r="W13" t="n">
         <v>1606.309244450245</v>
@@ -5255,7 +5255,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5264,64 +5264,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004238</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771598</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004237</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.67762964364</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883921</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716171</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D19" t="n">
-        <v>639.1929661716171</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E19" t="n">
-        <v>469.4349624223543</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F19" t="n">
-        <v>292.7279083841105</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>127.136633409938</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883913</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716163</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>639.1929661716163</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>469.4349624223535</v>
+        <v>584.4613435928211</v>
       </c>
       <c r="F22" t="n">
-        <v>292.7279083841097</v>
+        <v>407.7542895545773</v>
       </c>
       <c r="G22" t="n">
-        <v>292.7279083841097</v>
+        <v>242.163014580405</v>
       </c>
       <c r="H22" t="n">
-        <v>152.8257340744843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2562.150454693625</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
         <v>614.3171730324584</v>
@@ -6172,16 +6172,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
         <v>1617.386921419177</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6364,16 +6364,16 @@
         <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
         <v>267.852115244952</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,10 +6704,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
         <v>614.3171730324584</v>
@@ -6926,10 +6926,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903955</v>
+        <v>970.9960463903952</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736203</v>
+        <v>798.4343348736202</v>
       </c>
       <c r="D37" t="n">
-        <v>632.556342075143</v>
+        <v>632.5563420751429</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258803</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0912842876365</v>
+        <v>286.0912842876363</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134642</v>
+        <v>120.5000093134641</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7123,22 +7123,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752035</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.60800300514</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
         <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
         <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109383</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835853</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197254</v>
@@ -7178,13 +7178,13 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
         <v>3334.372458245845</v>
@@ -7199,7 +7199,7 @@
         <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
         <v>4607.41549767352</v>
@@ -7217,7 +7217,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936681</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D40" t="n">
-        <v>756.186622908067</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716805</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463128</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850167</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882665</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581785</v>
@@ -7333,10 +7333,10 @@
         <v>200.2197420758677</v>
       </c>
       <c r="K40" t="n">
-        <v>491.051549882363</v>
+        <v>491.0515498823632</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856839</v>
+        <v>925.3347848856843</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7366,16 +7366,16 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
@@ -7436,25 +7436,25 @@
         <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7549,16 +7549,16 @@
         <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716793</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850155</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
@@ -7591,7 +7591,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7637,13 +7637,13 @@
         <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7661,16 +7661,16 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387606</v>
@@ -7691,7 +7691,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
         <v>448.1887018024878</v>
@@ -7801,10 +7801,10 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758677</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
         <v>491.0515498823631</v>
@@ -7825,7 +7825,7 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
         <v>2837.795025579745</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.1234907850368</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060596</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509822335</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>204.7592244691589</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>120.5810333588752</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>491.4954956819005</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>512.1900428685063</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685062</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685062</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685062</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920777</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685062</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>270.871885567924</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>467.0856939309873</v>
+        <v>768.3717310533768</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395381</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,22 +9170,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10352,13 +10352,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10826,7 +10826,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>901.152332228357</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>395.2563907559409</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>331.8898605107373</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>81.78272691405257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-3.656260107629862e-13</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>113.8761173587624</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>37.71410486740383</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.446659489828647</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142715</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-9.566747394273988e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>781266.9808233278</v>
+        <v>793099.9098544137</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>781266.9808233278</v>
+        <v>793738.4828809951</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>785773.9105455766</v>
+        <v>793738.4828809951</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631871.6446638952</v>
+        <v>631871.644663895</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>804794.9836908433</v>
+        <v>804794.9836908437</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>804794.9836908433</v>
+        <v>804794.9836908437</v>
       </c>
     </row>
     <row r="9">
@@ -26320,13 +26320,13 @@
         <v>187651.561961643</v>
       </c>
       <c r="E2" t="n">
-        <v>144778.7712754181</v>
+        <v>144778.771275418</v>
       </c>
       <c r="F2" t="n">
-        <v>184400.1544480733</v>
+        <v>184400.1544480734</v>
       </c>
       <c r="G2" t="n">
-        <v>184400.1544480733</v>
+        <v>184400.1544480734</v>
       </c>
       <c r="H2" t="n">
         <v>184400.1544480733</v>
@@ -26335,22 +26335,22 @@
         <v>184400.1544480733</v>
       </c>
       <c r="J2" t="n">
-        <v>184400.1544480734</v>
+        <v>184400.1544480733</v>
       </c>
       <c r="K2" t="n">
-        <v>184400.1544480734</v>
+        <v>184400.1544480733</v>
       </c>
       <c r="L2" t="n">
         <v>184400.1544480733</v>
       </c>
       <c r="M2" t="n">
-        <v>184400.1544480733</v>
+        <v>184400.1544480734</v>
       </c>
       <c r="N2" t="n">
         <v>187651.5619616429</v>
       </c>
       <c r="O2" t="n">
-        <v>187651.5619616429</v>
+        <v>187651.561961643</v>
       </c>
       <c r="P2" t="n">
         <v>187651.561961643</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797193</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928949193</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477411</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543119</v>
+        <v>72938.04361534392</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540557</v>
+        <v>105000.4827540558</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877635</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375341</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401241</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400252</v>
+        <v>60876.72976950133</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716061</v>
+        <v>88373.1476371607</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>158848.1923688625</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>184220.109556457</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
         <v>53389.63827696993</v>
@@ -26430,34 +26430,34 @@
         <v>68000.69828933279</v>
       </c>
       <c r="G4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="H4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="I4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="J4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="H4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="K4" t="n">
-        <v>68000.69828933279</v>
-      </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933284</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>81349.24995213683</v>
+        <v>81349.24995213684</v>
       </c>
       <c r="O4" t="n">
+        <v>81349.24995213674</v>
+      </c>
+      <c r="P4" t="n">
         <v>81349.24995213679</v>
-      </c>
-      <c r="P4" t="n">
-        <v>81349.2499521368</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996844</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640519</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696391</v>
+        <v>55437.43563696388</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608971</v>
@@ -26509,7 +26509,7 @@
         <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213793.3530818048</v>
+        <v>-264178.2434569072</v>
       </c>
       <c r="C6" t="n">
-        <v>-71602.05242209494</v>
+        <v>-47220.9507817377</v>
       </c>
       <c r="D6" t="n">
-        <v>-88639.87299599327</v>
+        <v>-43197.60385278844</v>
       </c>
       <c r="E6" t="n">
-        <v>-83363.02299282768</v>
+        <v>-37292.58047304703</v>
       </c>
       <c r="F6" t="n">
-        <v>-66319.26520110767</v>
+        <v>-66342.48954049041</v>
       </c>
       <c r="G6" t="n">
-        <v>38681.21755294799</v>
+        <v>38657.9932135654</v>
       </c>
       <c r="H6" t="n">
-        <v>38681.21755294799</v>
+        <v>38657.99321356534</v>
       </c>
       <c r="I6" t="n">
-        <v>38681.21755294802</v>
+        <v>38657.99321356536</v>
       </c>
       <c r="J6" t="n">
-        <v>-72333.24779204215</v>
+        <v>-132734.9831741982</v>
       </c>
       <c r="K6" t="n">
-        <v>38681.21755294804</v>
+        <v>35452.87186618997</v>
       </c>
       <c r="L6" t="n">
-        <v>16435.9902889356</v>
+        <v>38657.99321356536</v>
       </c>
       <c r="M6" t="n">
-        <v>-60903.16432105453</v>
+        <v>-22218.73655593594</v>
       </c>
       <c r="N6" t="n">
-        <v>-57586.45035374427</v>
+        <v>-57586.45035374438</v>
       </c>
       <c r="O6" t="n">
-        <v>30786.6972834164</v>
+        <v>30786.69728341662</v>
       </c>
       <c r="P6" t="n">
-        <v>30786.69728341643</v>
+        <v>30786.69728341646</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685063</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.799928239538</v>
+        <v>911.7999282395375</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.4534571017972</v>
       </c>
       <c r="D4" t="n">
-        <v>87.894185348402</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710316</v>
+        <v>244.2847216316806</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452074</v>
+        <v>366.4605751452078</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.4534571017972</v>
       </c>
       <c r="L4" t="n">
-        <v>87.894185348402</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710314</v>
+        <v>244.2847216316806</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081853</v>
+        <v>307.7838677081855</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.4534571017972</v>
       </c>
       <c r="L4" t="n">
-        <v>87.894185348402</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710316</v>
+        <v>244.2847216316806</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452074</v>
+        <v>366.4605751452078</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>114.1405214419547</v>
+        <v>92.66826085557267</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27537,25 +27537,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>77.44084312109584</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.914356164286957</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>146.6995854442765</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>373.8132119411596</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.26974202066685</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>131.6189260282566</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>367.6387245651729</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>58.66873794568184</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>234.1935890368582</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="C38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="D38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="E38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="F38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="G38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="H38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="T38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="U38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="V38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="W38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="X38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="C40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="D40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="E40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="F40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="G40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="H40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="I40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="J40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="K40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="L40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="M40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="N40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="O40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="P40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="R40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="S40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="T40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="U40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="V40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="W40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="X40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874743</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874674</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.1234907850368</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060596</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509822335</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>204.7592244691589</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>120.5810333588752</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>491.4954956819005</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>512.1900428685063</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685062</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685062</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685062</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920777</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685062</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>270.871885567924</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>467.0856939309873</v>
+        <v>768.3717310533768</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35422,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395381</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -37072,13 +37072,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,7 +37546,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37701,25 +37701,25 @@
         <v>103.6899377778281</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348438</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033062</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
         <v>440.1440428900419</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>901.152332228357</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38193,7 +38193,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
